--- a/trends/temp/table3.xlsx
+++ b/trends/temp/table3.xlsx
@@ -28,46 +28,46 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>(1.03)</t>
-  </si>
-  <si>
-    <t>(1.08)</t>
-  </si>
-  <si>
-    <t>(0.94)</t>
-  </si>
-  <si>
-    <t>(0.73)</t>
-  </si>
-  <si>
-    <t>(2.72)</t>
-  </si>
-  <si>
-    <t>(1.01)</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>(1.29)</t>
-  </si>
-  <si>
-    <t>(1.09)</t>
-  </si>
-  <si>
-    <t>(0.53)</t>
-  </si>
-  <si>
-    <t>(1.06)</t>
-  </si>
-  <si>
-    <t>(2.55)</t>
-  </si>
-  <si>
-    <t>(0.2)</t>
+    <t>(0.7)</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.17)</t>
+  </si>
+  <si>
+    <t>(0.39)</t>
+  </si>
+  <si>
+    <t>(0.18)</t>
+  </si>
+  <si>
+    <t>(1.91)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
+  </si>
+  <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
+    <t>(0.44)</t>
+  </si>
+  <si>
+    <t>(0.26)</t>
+  </si>
+  <si>
+    <t>(0.54)</t>
+  </si>
+  <si>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(1.16)</t>
   </si>
   <si>
     <t>(0.0)</t>

--- a/trends/temp/table3.xlsx
+++ b/trends/temp/table3.xlsx
@@ -28,46 +28,46 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(0.7)</t>
-  </si>
-  <si>
-    <t>(0.28)</t>
-  </si>
-  <si>
-    <t>(0.46)</t>
-  </si>
-  <si>
-    <t>(0.17)</t>
-  </si>
-  <si>
-    <t>(0.39)</t>
-  </si>
-  <si>
-    <t>(0.18)</t>
-  </si>
-  <si>
-    <t>(1.91)</t>
-  </si>
-  <si>
-    <t>(0.3)</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
-    <t>(0.44)</t>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(0.5)</t>
   </si>
   <si>
     <t>(0.26)</t>
   </si>
   <si>
-    <t>(0.54)</t>
-  </si>
-  <si>
-    <t>(0.48)</t>
-  </si>
-  <si>
-    <t>(1.16)</t>
+    <t>(0.73)</t>
+  </si>
+  <si>
+    <t>(0.07)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.1)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.49)</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
   </si>
   <si>
     <t>(0.0)</t>

--- a/trends/temp/table3.xlsx
+++ b/trends/temp/table3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>year range</t>
   </si>
@@ -28,49 +28,52 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
     <t>(0.5)</t>
   </si>
   <si>
-    <t>(0.26)</t>
-  </si>
-  <si>
-    <t>(0.73)</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
-  </si>
-  <si>
-    <t>(0.35)</t>
+    <t>(0.43)</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>(0.1)</t>
+  </si>
+  <si>
+    <t>(2.02)</t>
+  </si>
+  <si>
+    <t>(1.09)</t>
   </si>
   <si>
     <t>(0.22)</t>
   </si>
   <si>
-    <t>(0.1)</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(0.51)</t>
+    <t>(0.12)</t>
   </si>
   <si>
     <t>(0.15)</t>
   </si>
   <si>
-    <t>(0.49)</t>
+    <t>(0.17)</t>
+  </si>
+  <si>
+    <t>(2.16)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
   </si>
   <si>
     <t>(0.31)</t>
   </si>
   <si>
-    <t>(0.0)</t>
+    <t>(0.00002)</t>
+  </si>
+  <si>
+    <t>(0.00000)</t>
+  </si>
+  <si>
+    <t>(0.00001)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
         <v>10.9</v>
       </c>
       <c r="E2">
-        <v>0.106</v>
+        <v>0.105657</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -479,7 +482,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,7 +499,7 @@
         <v>11.91</v>
       </c>
       <c r="E4">
-        <v>0.099</v>
+        <v>0.09945900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -530,7 +533,7 @@
         <v>14.5</v>
       </c>
       <c r="E6">
-        <v>0.068</v>
+        <v>0.068439</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -564,7 +567,7 @@
         <v>14.93</v>
       </c>
       <c r="E8">
-        <v>0.062</v>
+        <v>0.061954</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -578,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -598,7 +601,7 @@
         <v>17.2</v>
       </c>
       <c r="E10">
-        <v>0.055</v>
+        <v>0.054771</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -612,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -632,7 +635,7 @@
         <v>16.69</v>
       </c>
       <c r="E12">
-        <v>0.057</v>
+        <v>0.057475</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -646,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -666,7 +669,7 @@
         <v>14.26</v>
       </c>
       <c r="E14">
-        <v>0.051</v>
+        <v>0.050718</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -680,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
